--- a/xlsx/愚人节_intext.xlsx
+++ b/xlsx/愚人节_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>愚人节</t>
   </si>
@@ -29,7 +29,7 @@
     <t>公历</t>
   </si>
   <si>
-    <t>政策_政策_美國_愚人节</t>
+    <t>政策_政策_美国_愚人节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%BA%AA</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%A0%E8%A8%80</t>
   </si>
   <si>
-    <t>謠言</t>
+    <t>谣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
-    <t>都市傳說</t>
+    <t>都市传说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AF%91</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83</t>
   </si>
   <si>
-    <t>漢喃</t>
+    <t>汉喃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%BC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西王國</t>
+    <t>法兰西王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B9%9D%E4%B8%96_(%E6%B3%95%E5%85%B0%E8%A5%BF)</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>不列顛百科全書</t>
+    <t>不列颠百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%94%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十五世紀</t>
+    <t>十五世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E7%8E%8B</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%AB%AF%E8%A3%81%E5%88%A4%E6%89%80</t>
   </si>
   <si>
-    <t>異端裁判所</t>
+    <t>异端裁判所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BB%99%E8%8A%B1</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>新聞</t>
+    <t>新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4</t>
@@ -263,25 +263,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E7%B5%84</t>
   </si>
   <si>
-    <t>新聞組</t>
+    <t>新闻组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%88%BE%E5%B9%B4%E7%A7%91</t>
   </si>
   <si>
-    <t>契爾年科</t>
+    <t>契尔年科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A7%86%E6%9E%97%E5%AE%AE</t>
   </si>
   <si>
-    <t>克里姆林宮</t>
+    <t>克里姆林宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BA%E6%9C%8D%E5%99%A8</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%A5%AF%E7%B7%9A%E9%AB%94</t>
   </si>
   <si>
-    <t>無襯線體</t>
+    <t>无衬线体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%9D%A2%E6%A0%91</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5</t>
   </si>
   <si>
-    <t>義大利麵</t>
+    <t>义大利面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9</t>
   </si>
   <si>
-    <t>樹</t>
+    <t>树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%88%B6</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>時間</t>
+    <t>时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E9%80%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>十進制</t>
+    <t>十进制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -377,37 +377,37 @@
     <t>https://zh.wikipedia.org/wiki/Swatch%E5%9B%A0%E7%89%B9%E7%B6%B2%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>Swatch因特網時間</t>
+    <t>Swatch因特网时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%96%A9%E6%96%9C%E5%A1%94</t>
   </si>
   <si>
-    <t>比薩斜塔</t>
+    <t>比萨斜塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>荷蘭政府</t>
+    <t>荷兰政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81</t>
   </si>
   <si>
-    <t>鋁</t>
+    <t>铝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E4%BB%A3</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E5%A7%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際奧委會</t>
+    <t>国际奥委会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
@@ -455,25 +455,25 @@
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2000年夏季奧林匹克運動會</t>
+    <t>2000年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E8%93%8B%E8%8C%B2</t>
   </si>
   <si>
-    <t>比爾·蓋茲</t>
+    <t>比尔·盖兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B4</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2005%E5%B9%B4</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91</t>
@@ -509,19 +509,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>台灣大學</t>
+    <t>台湾大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E8%B8%A2%E8%B8%A2</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合新聞網</t>
+    <t>联合新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國總統府</t>
+    <t>中华民国总统府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%A4%BE</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%84%9B%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>博愛特區</t>
+    <t>博爱特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E5%82%B3%E8%A8%8A%E8%BB%9F%E4%BB%B6</t>
   </si>
   <si>
-    <t>即時傳訊軟件</t>
+    <t>即时传讯软件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E9%83%B5</t>
   </si>
   <si>
-    <t>電郵</t>
+    <t>电邮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5</t>
   </si>
   <si>
-    <t>南極</t>
+    <t>南极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Rick_Astley</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%E6%90%96%E6%93%BA</t>
   </si>
   <si>
-    <t>理查德搖擺</t>
+    <t>理查德摇摆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%95%AB%E8%B3%AA</t>
   </si>
   <si>
-    <t>高畫質</t>
+    <t>高画质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%87%91</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E5%AF%AC</t>
   </si>
   <si>
-    <t>頻寬</t>
+    <t>频宽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E8%80%81%E8%99%8E%E9%9A%8A</t>
   </si>
   <si>
-    <t>底特律老虎隊</t>
+    <t>底特律老虎队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%89%8B</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA%E9%9A%8A</t>
   </si>
   <si>
-    <t>波士頓紅襪隊</t>
+    <t>波士顿红袜队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E7%99%BC%E6%8A%95%E6%89%8B</t>
   </si>
   <si>
-    <t>先發投手</t>
+    <t>先发投手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E7%89%B9</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%81%AF</t>
   </si>
   <si>
-    <t>曼聯</t>
+    <t>曼联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>富士電視台</t>
+    <t>富士电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Algodoo</t>
@@ -785,25 +785,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%A0%B1</t>
   </si>
   <si>
-    <t>明報</t>
+    <t>明报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>行政長官</t>
+    <t>行政长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E5%BB%BA%E8%8F%AF</t>
   </si>
   <si>
-    <t>董建華</t>
+    <t>董建华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中國中央政府</t>
+    <t>中国中央政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ICQ</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>超級市場</t>
+    <t>超级市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%BA%9C</t>
@@ -827,31 +827,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%81%A5%E6%B3%A2</t>
   </si>
   <si>
-    <t>張健波</t>
+    <t>张健波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%9C%8B%E6%A6%AE</t>
   </si>
   <si>
-    <t>張國榮</t>
+    <t>张国荣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%87%E8%8F%AF%E6%9D%B1%E6%96%B9%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>香港文華東方酒店</t>
+    <t>香港文华东方酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82%E5%9C%88</t>
   </si>
   <si>
-    <t>娛樂圈</t>
+    <t>娱乐圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -863,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8C%97%E7%9C%81</t>
   </si>
   <si>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E7%BD%91</t>
@@ -5324,7 +5321,7 @@
         <v>281</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5350,10 +5347,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5379,10 +5376,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5408,10 +5405,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5437,10 +5434,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5466,10 +5463,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
